--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/78/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/78/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.40824</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3408.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.62195</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3621.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.77664</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3776.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>3.91298</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>3912.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>7.86267</v>
+        <v>4.01829</v>
       </c>
       <c r="C9" t="n">
-        <v>7862.67</v>
+        <v>4018.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247923</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>8.920579999999999</v>
+        <v>4.10375</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.58</v>
+        <v>4103.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278848</v>
+        <v>0.278803</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0193</v>
+        <v>4.18908</v>
       </c>
       <c r="C11" t="n">
-        <v>10019.3</v>
+        <v>4189.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309773</v>
+        <v>0.309728</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0276</v>
+        <v>4.25988</v>
       </c>
       <c r="C12" t="n">
-        <v>11027.6</v>
+        <v>4259.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340699</v>
+        <v>0.340653</v>
       </c>
       <c r="B13" t="n">
-        <v>11.8167</v>
+        <v>4.31959</v>
       </c>
       <c r="C13" t="n">
-        <v>11816.7</v>
+        <v>4319.59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371624</v>
+        <v>0.371578</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5513</v>
+        <v>4.375979999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>12551.3</v>
+        <v>4375.98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402549</v>
+        <v>0.402503</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3746</v>
+        <v>4.42524</v>
       </c>
       <c r="C15" t="n">
-        <v>13374.6</v>
+        <v>4425.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433474</v>
+        <v>0.433428</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9123</v>
+        <v>4.47125</v>
       </c>
       <c r="C16" t="n">
-        <v>13912.3</v>
+        <v>4471.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464399</v>
+        <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3608</v>
+        <v>4.512729999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>14360.8</v>
+        <v>4512.73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495324</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>14.5773</v>
+        <v>4.548760000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>14577.3</v>
+        <v>4548.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526249</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>14.6095</v>
+        <v>4.58213</v>
       </c>
       <c r="C19" t="n">
-        <v>14609.5</v>
+        <v>4582.13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5571739999999999</v>
+        <v>0.557124</v>
       </c>
       <c r="B20" t="n">
-        <v>14.5488</v>
+        <v>4.61344</v>
       </c>
       <c r="C20" t="n">
-        <v>14548.8</v>
+        <v>4613.44</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588099</v>
+        <v>0.588049</v>
       </c>
       <c r="B21" t="n">
-        <v>14.4826</v>
+        <v>4.64099</v>
       </c>
       <c r="C21" t="n">
-        <v>14482.6</v>
+        <v>4640.99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191410000000001</v>
+        <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>14.4045</v>
+        <v>4.66786</v>
       </c>
       <c r="C22" t="n">
-        <v>14404.5</v>
+        <v>4667.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650313</v>
+        <v>0.650268</v>
       </c>
       <c r="B23" t="n">
-        <v>14.3082</v>
+        <v>4.69191</v>
       </c>
       <c r="C23" t="n">
-        <v>14308.2</v>
+        <v>4691.91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681486</v>
+        <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>14.2165</v>
+        <v>4.715260000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>14216.5</v>
+        <v>4715.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712663</v>
+        <v>0.7126130000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>14.1073</v>
+        <v>4.73613</v>
       </c>
       <c r="C25" t="n">
-        <v>14107.3</v>
+        <v>4736.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7438360000000001</v>
+        <v>0.74379</v>
       </c>
       <c r="B26" t="n">
-        <v>13.9945</v>
+        <v>4.75695</v>
       </c>
       <c r="C26" t="n">
-        <v>13994.5</v>
+        <v>4756.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775013</v>
+        <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>13.8749</v>
+        <v>4.7757</v>
       </c>
       <c r="C27" t="n">
-        <v>13874.9</v>
+        <v>4775.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806185</v>
+        <v>0.806135</v>
       </c>
       <c r="B28" t="n">
-        <v>13.7421</v>
+        <v>4.793310000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>13742.1</v>
+        <v>4793.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837358</v>
+        <v>0.8373119999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>13.6121</v>
+        <v>4.81079</v>
       </c>
       <c r="C29" t="n">
-        <v>13612.1</v>
+        <v>4810.79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685349999999999</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>13.4629</v>
+        <v>4.82718</v>
       </c>
       <c r="C30" t="n">
-        <v>13462.9</v>
+        <v>4827.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899707</v>
+        <v>0.899657</v>
       </c>
       <c r="B31" t="n">
-        <v>13.3182</v>
+        <v>4.84246</v>
       </c>
       <c r="C31" t="n">
-        <v>13318.2</v>
+        <v>4842.46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93088</v>
+        <v>0.9308340000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>13.1575</v>
+        <v>4.857270000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>13157.5</v>
+        <v>4857.27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620570000000001</v>
+        <v>0.9620069999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>12.9933</v>
+        <v>4.871630000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>12993.3</v>
+        <v>4871.63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993229</v>
+        <v>0.993184</v>
       </c>
       <c r="B34" t="n">
-        <v>12.8233</v>
+        <v>4.88534</v>
       </c>
       <c r="C34" t="n">
-        <v>12823.3</v>
+        <v>4885.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02422</v>
       </c>
       <c r="B35" t="n">
-        <v>12.6386</v>
+        <v>4.898359999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>12638.6</v>
+        <v>4898.36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05519</v>
       </c>
       <c r="B36" t="n">
-        <v>12.4575</v>
+        <v>4.910810000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>12457.5</v>
+        <v>4910.81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08619</v>
+        <v>1.08616</v>
       </c>
       <c r="B37" t="n">
-        <v>12.256</v>
+        <v>4.92283</v>
       </c>
       <c r="C37" t="n">
-        <v>12256</v>
+        <v>4922.83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11716</v>
+        <v>1.11712</v>
       </c>
       <c r="B38" t="n">
-        <v>12.0597</v>
+        <v>4.934439999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>12059.7</v>
+        <v>4934.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14806</v>
+        <v>1.14809</v>
       </c>
       <c r="B39" t="n">
-        <v>10.2074</v>
+        <v>4.94568</v>
       </c>
       <c r="C39" t="n">
-        <v>10207.4</v>
+        <v>4945.68</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17919</v>
+        <v>1.17906</v>
       </c>
       <c r="B40" t="n">
-        <v>11.6587</v>
+        <v>4.95652</v>
       </c>
       <c r="C40" t="n">
-        <v>11658.7</v>
+        <v>4956.52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21008</v>
+        <v>1.21003</v>
       </c>
       <c r="B41" t="n">
-        <v>8.80181</v>
+        <v>4.96695</v>
       </c>
       <c r="C41" t="n">
-        <v>8801.809999999999</v>
+        <v>4966.95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24151</v>
+        <v>1.24099</v>
       </c>
       <c r="B42" t="n">
-        <v>11.6737</v>
+        <v>4.97701</v>
       </c>
       <c r="C42" t="n">
-        <v>11673.7</v>
+        <v>4977.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27253</v>
+        <v>1.27196</v>
       </c>
       <c r="B43" t="n">
-        <v>11.161</v>
+        <v>4.98671</v>
       </c>
       <c r="C43" t="n">
-        <v>11161</v>
+        <v>4986.71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30325</v>
+        <v>1.30293</v>
       </c>
       <c r="B44" t="n">
-        <v>11.1353</v>
+        <v>4.99607</v>
       </c>
       <c r="C44" t="n">
-        <v>11135.3</v>
+        <v>4996.07</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33457</v>
+        <v>1.3339</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0889</v>
+        <v>5.005100000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>11088.9</v>
+        <v>5005.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3654</v>
+        <v>1.36487</v>
       </c>
       <c r="B46" t="n">
-        <v>10.6783</v>
+        <v>5.013800000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>10678.3</v>
+        <v>5013.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39656</v>
+        <v>1.39583</v>
       </c>
       <c r="B47" t="n">
-        <v>10.4451</v>
+        <v>5.0222</v>
       </c>
       <c r="C47" t="n">
-        <v>10445.1</v>
+        <v>5022.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42764</v>
+        <v>1.4268</v>
       </c>
       <c r="B48" t="n">
-        <v>10.1554</v>
+        <v>5.030310000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>10155.4</v>
+        <v>5030.31</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45869</v>
+        <v>1.45777</v>
       </c>
       <c r="B49" t="n">
-        <v>9.981059999999999</v>
+        <v>5.03811</v>
       </c>
       <c r="C49" t="n">
-        <v>9981.059999999999</v>
+        <v>5038.11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48969</v>
+        <v>1.48874</v>
       </c>
       <c r="B50" t="n">
-        <v>9.65105</v>
+        <v>5.045640000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>9651.049999999999</v>
+        <v>5045.64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52068</v>
+        <v>1.51971</v>
       </c>
       <c r="B51" t="n">
-        <v>9.40779</v>
+        <v>5.05291</v>
       </c>
       <c r="C51" t="n">
-        <v>9407.790000000001</v>
+        <v>5052.91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55174</v>
+        <v>1.55067</v>
       </c>
       <c r="B52" t="n">
-        <v>9.21405</v>
+        <v>5.05991</v>
       </c>
       <c r="C52" t="n">
-        <v>9214.049999999999</v>
+        <v>5059.91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58271</v>
+        <v>1.58161</v>
       </c>
       <c r="B53" t="n">
-        <v>9.036280000000001</v>
+        <v>5.06666</v>
       </c>
       <c r="C53" t="n">
-        <v>9036.280000000001</v>
+        <v>5066.66</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61379</v>
+        <v>1.61217</v>
       </c>
       <c r="B54" t="n">
-        <v>8.782299999999999</v>
+        <v>5.07317</v>
       </c>
       <c r="C54" t="n">
-        <v>8782.299999999999</v>
+        <v>5073.17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64476</v>
+        <v>1.64272</v>
       </c>
       <c r="B55" t="n">
-        <v>8.485139999999999</v>
+        <v>5.07945</v>
       </c>
       <c r="C55" t="n">
-        <v>8485.139999999999</v>
+        <v>5079.45</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6758</v>
+        <v>1.67328</v>
       </c>
       <c r="B56" t="n">
-        <v>8.312149999999999</v>
+        <v>5.0855</v>
       </c>
       <c r="C56" t="n">
-        <v>8312.15</v>
+        <v>5085.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70673</v>
+        <v>1.70383</v>
       </c>
       <c r="B57" t="n">
-        <v>8.16736</v>
+        <v>5.09132</v>
       </c>
       <c r="C57" t="n">
-        <v>8167.36</v>
+        <v>5091.32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73791</v>
+        <v>1.73439</v>
       </c>
       <c r="B58" t="n">
-        <v>8.073700000000001</v>
+        <v>5.09694</v>
       </c>
       <c r="C58" t="n">
-        <v>8073.7</v>
+        <v>5096.94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76895</v>
+        <v>1.76537</v>
       </c>
       <c r="B59" t="n">
-        <v>7.80166</v>
+        <v>5.10241</v>
       </c>
       <c r="C59" t="n">
-        <v>7801.66</v>
+        <v>5102.41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79982</v>
+        <v>1.79695</v>
       </c>
       <c r="B60" t="n">
-        <v>7.66744</v>
+        <v>5.107760000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>7667.44</v>
+        <v>5107.76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83129</v>
+        <v>1.82852</v>
       </c>
       <c r="B61" t="n">
-        <v>7.553430000000001</v>
+        <v>5.1129</v>
       </c>
       <c r="C61" t="n">
-        <v>7553.43</v>
+        <v>5112.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86221</v>
+        <v>1.85995</v>
       </c>
       <c r="B62" t="n">
-        <v>7.42928</v>
+        <v>5.11782</v>
       </c>
       <c r="C62" t="n">
-        <v>7429.28</v>
+        <v>5117.82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89303</v>
+        <v>1.8911</v>
       </c>
       <c r="B63" t="n">
-        <v>7.282430000000001</v>
+        <v>5.12254</v>
       </c>
       <c r="C63" t="n">
-        <v>7282.43</v>
+        <v>5122.54</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92452</v>
+        <v>1.92225</v>
       </c>
       <c r="B64" t="n">
-        <v>7.19322</v>
+        <v>5.12706</v>
       </c>
       <c r="C64" t="n">
-        <v>7193.22</v>
+        <v>5127.06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95532</v>
+        <v>1.95339</v>
       </c>
       <c r="B65" t="n">
-        <v>7.07751</v>
+        <v>5.13137</v>
       </c>
       <c r="C65" t="n">
-        <v>7077.51</v>
+        <v>5131.37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98593</v>
+        <v>1.98454</v>
       </c>
       <c r="B66" t="n">
-        <v>6.9786</v>
+        <v>5.13549</v>
       </c>
       <c r="C66" t="n">
-        <v>6978.6</v>
+        <v>5135.49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01757</v>
+        <v>2.01563</v>
       </c>
       <c r="B67" t="n">
-        <v>6.83309</v>
+        <v>5.139390000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>6833.09</v>
+        <v>5139.39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04865</v>
+        <v>2.04635</v>
       </c>
       <c r="B68" t="n">
-        <v>6.76147</v>
+        <v>5.14312</v>
       </c>
       <c r="C68" t="n">
-        <v>6761.47</v>
+        <v>5143.12</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0797</v>
+        <v>2.07707</v>
       </c>
       <c r="B69" t="n">
-        <v>6.680770000000001</v>
+        <v>5.14666</v>
       </c>
       <c r="C69" t="n">
-        <v>6680.77</v>
+        <v>5146.66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11018</v>
+        <v>2.10779</v>
       </c>
       <c r="B70" t="n">
-        <v>6.57475</v>
+        <v>5.15001</v>
       </c>
       <c r="C70" t="n">
-        <v>6574.75</v>
+        <v>5150.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14131</v>
+        <v>2.13851</v>
       </c>
       <c r="B71" t="n">
-        <v>6.48534</v>
+        <v>5.153180000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>6485.34</v>
+        <v>5153.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17194</v>
+        <v>2.16923</v>
       </c>
       <c r="B72" t="n">
-        <v>6.44725</v>
+        <v>5.15617</v>
       </c>
       <c r="C72" t="n">
-        <v>6447.25</v>
+        <v>5156.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20443</v>
+        <v>2.19995</v>
       </c>
       <c r="B73" t="n">
-        <v>6.47358</v>
+        <v>5.15899</v>
       </c>
       <c r="C73" t="n">
-        <v>6473.58</v>
+        <v>5158.99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23515</v>
+        <v>2.23067</v>
       </c>
       <c r="B74" t="n">
-        <v>6.46075</v>
+        <v>5.16162</v>
       </c>
       <c r="C74" t="n">
-        <v>6460.75</v>
+        <v>5161.62</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26587</v>
+        <v>2.26139</v>
       </c>
       <c r="B75" t="n">
-        <v>6.45704</v>
+        <v>5.16408</v>
       </c>
       <c r="C75" t="n">
-        <v>6457.04</v>
+        <v>5164.08</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29659</v>
+        <v>2.29211</v>
       </c>
       <c r="B76" t="n">
-        <v>6.44358</v>
+        <v>5.16638</v>
       </c>
       <c r="C76" t="n">
-        <v>6443.58</v>
+        <v>5166.38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32731</v>
+        <v>2.32283</v>
       </c>
       <c r="B77" t="n">
-        <v>6.388</v>
+        <v>5.16849</v>
       </c>
       <c r="C77" t="n">
-        <v>6388</v>
+        <v>5168.49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35831</v>
+        <v>2.35406</v>
       </c>
       <c r="B78" t="n">
-        <v>6.355420000000001</v>
+        <v>5.170470000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>6355.42</v>
+        <v>5170.47</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3896</v>
+        <v>2.38584</v>
       </c>
       <c r="B79" t="n">
-        <v>6.3696</v>
+        <v>5.1723</v>
       </c>
       <c r="C79" t="n">
-        <v>6369.6</v>
+        <v>5172.3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42089</v>
+        <v>2.41762</v>
       </c>
       <c r="B80" t="n">
-        <v>6.325</v>
+        <v>5.17394</v>
       </c>
       <c r="C80" t="n">
-        <v>6325</v>
+        <v>5173.94</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44944</v>
+        <v>2.44805</v>
       </c>
       <c r="B81" t="n">
-        <v>6.282649999999999</v>
+        <v>5.175380000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>6282.65</v>
+        <v>5175.38</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48236</v>
+        <v>2.47792</v>
       </c>
       <c r="B82" t="n">
-        <v>6.24908</v>
+        <v>5.17663</v>
       </c>
       <c r="C82" t="n">
-        <v>6249.08</v>
+        <v>5176.63</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51756</v>
+        <v>2.50779</v>
       </c>
       <c r="B83" t="n">
-        <v>6.24841</v>
+        <v>5.17769</v>
       </c>
       <c r="C83" t="n">
-        <v>6248.41</v>
+        <v>5177.69</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55209</v>
+        <v>2.53765</v>
       </c>
       <c r="B84" t="n">
-        <v>6.1825</v>
+        <v>5.1786</v>
       </c>
       <c r="C84" t="n">
-        <v>6182.5</v>
+        <v>5178.6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58413</v>
+        <v>2.56752</v>
       </c>
       <c r="B85" t="n">
-        <v>6.16825</v>
+        <v>5.17933</v>
       </c>
       <c r="C85" t="n">
-        <v>6168.25</v>
+        <v>5179.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61613</v>
+        <v>2.59844</v>
       </c>
       <c r="B86" t="n">
-        <v>6.12518</v>
+        <v>5.17989</v>
       </c>
       <c r="C86" t="n">
-        <v>6125.18</v>
+        <v>5179.89</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64813</v>
+        <v>2.63044</v>
       </c>
       <c r="B87" t="n">
-        <v>6.058590000000001</v>
+        <v>5.18028</v>
       </c>
       <c r="C87" t="n">
-        <v>6058.59</v>
+        <v>5180.28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.68013</v>
+        <v>2.66244</v>
       </c>
       <c r="B88" t="n">
-        <v>6.02371</v>
+        <v>5.180470000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>6023.71</v>
+        <v>5180.47</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.71213</v>
+        <v>2.69444</v>
       </c>
       <c r="B89" t="n">
-        <v>5.97103</v>
+        <v>5.18045</v>
       </c>
       <c r="C89" t="n">
-        <v>5971.03</v>
+        <v>5180.45</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74413</v>
+        <v>2.72644</v>
       </c>
       <c r="B90" t="n">
-        <v>5.944850000000001</v>
+        <v>5.18021</v>
       </c>
       <c r="C90" t="n">
-        <v>5944.85</v>
+        <v>5180.21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77613</v>
+        <v>2.75844</v>
       </c>
       <c r="B91" t="n">
-        <v>5.89956</v>
+        <v>5.179729999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>5899.56</v>
+        <v>5179.73</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80762</v>
+        <v>2.79044</v>
       </c>
       <c r="B92" t="n">
-        <v>5.88686</v>
+        <v>5.179060000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>5886.86</v>
+        <v>5179.06</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83649</v>
+        <v>2.82175</v>
       </c>
       <c r="B93" t="n">
-        <v>5.843739999999999</v>
+        <v>5.17818</v>
       </c>
       <c r="C93" t="n">
-        <v>5843.74</v>
+        <v>5178.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86529</v>
+        <v>2.85284</v>
       </c>
       <c r="B94" t="n">
-        <v>5.8269</v>
+        <v>5.17708</v>
       </c>
       <c r="C94" t="n">
-        <v>5826.9</v>
+        <v>5177.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89409</v>
+        <v>2.88393</v>
       </c>
       <c r="B95" t="n">
-        <v>5.77358</v>
+        <v>5.17576</v>
       </c>
       <c r="C95" t="n">
-        <v>5773.58</v>
+        <v>5175.76</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92289</v>
+        <v>2.91501</v>
       </c>
       <c r="B96" t="n">
-        <v>5.74455</v>
+        <v>5.1742</v>
       </c>
       <c r="C96" t="n">
-        <v>5744.55</v>
+        <v>5174.2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95169</v>
+        <v>2.9461</v>
       </c>
       <c r="B97" t="n">
-        <v>5.71511</v>
+        <v>5.17242</v>
       </c>
       <c r="C97" t="n">
-        <v>5715.11</v>
+        <v>5172.42</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98049</v>
+        <v>2.97718</v>
       </c>
       <c r="B98" t="n">
-        <v>5.68741</v>
+        <v>5.170430000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>5687.41</v>
+        <v>5170.43</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00929</v>
+        <v>3.00827</v>
       </c>
       <c r="B99" t="n">
-        <v>5.6442</v>
+        <v>5.168220000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>5644.2</v>
+        <v>5168.22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03809</v>
+        <v>3.03935</v>
       </c>
       <c r="B100" t="n">
-        <v>5.612109999999999</v>
+        <v>5.165760000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>5612.11</v>
+        <v>5165.76</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06689</v>
+        <v>3.07044</v>
       </c>
       <c r="B101" t="n">
-        <v>5.56675</v>
+        <v>5.16299</v>
       </c>
       <c r="C101" t="n">
-        <v>5566.75</v>
+        <v>5162.99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09569</v>
+        <v>3.10152</v>
       </c>
       <c r="B102" t="n">
-        <v>5.5808</v>
+        <v>5.15994</v>
       </c>
       <c r="C102" t="n">
-        <v>5580.8</v>
+        <v>5159.94</v>
       </c>
     </row>
   </sheetData>
